--- a/M_ModeloFisico.xlsx
+++ b/M_ModeloFisico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\38940293827\Documents\BancoDeDados\BancoDeDados\Gufos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\38940293827\Documents\2s2019-sprint-1-bd\2s2019-sprint-1-bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D24775-E95A-4034-A22D-619C07FACF60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{286C688D-5C90-47BC-8D3C-A64E63FB3A92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5955" xr2:uid="{FC480361-7B9D-40C6-BFF1-69934A03BDD2}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Nome</t>
   </si>
@@ -45,21 +39,6 @@
     <t>Permissao</t>
   </si>
   <si>
-    <t>Helena</t>
-  </si>
-  <si>
-    <t>h@gmail.com</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>Erik</t>
-  </si>
-  <si>
-    <t>e@gmail.com</t>
-  </si>
-  <si>
     <t>Aluno</t>
   </si>
   <si>
@@ -85,6 +64,72 @@
   </si>
   <si>
     <t>Ativo</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>IdUsuariio</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>r.berto@eu.com</t>
+  </si>
+  <si>
+    <t>robson123</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Filisbino</t>
+  </si>
+  <si>
+    <t>filisbino@cat.com</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Jogos</t>
+  </si>
+  <si>
+    <t>Passeio Comunitario</t>
+  </si>
+  <si>
+    <t>Provas</t>
+  </si>
+  <si>
+    <t>IdEvento</t>
+  </si>
+  <si>
+    <t>Ping-Pong</t>
+  </si>
+  <si>
+    <t>Encontro de Ping Pong</t>
+  </si>
+  <si>
+    <t>Alameda Barao de Limeira, 539</t>
+  </si>
+  <si>
+    <t>Meetup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BD Relacionais</t>
+  </si>
+  <si>
+    <t>Presencas</t>
+  </si>
+  <si>
+    <t>IdUsuario</t>
+  </si>
+  <si>
+    <t>Formatura</t>
+  </si>
+  <si>
+    <t>2DM</t>
   </si>
 </sst>
 </file>
@@ -115,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +177,36 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -153,26 +226,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -182,15 +235,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -202,55 +246,147 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
     <cellStyle name="Ênfase2" xfId="2" builtinId="33"/>
+    <cellStyle name="Ênfase3" xfId="4" builtinId="37"/>
+    <cellStyle name="Ênfase5" xfId="5" builtinId="45"/>
     <cellStyle name="Hiperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -564,127 +700,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63F55D2-FE00-44FD-BE64-93EB619D8AA3}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q16" sqref="A1:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="P1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="G1" s="13" t="s">
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6">
-        <v>123456789</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="15">
+        <v>43684.770833333336</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="15">
+        <v>43683.374305555553</v>
+      </c>
+      <c r="L3" s="14">
+        <v>1</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="14">
+        <v>1</v>
+      </c>
+      <c r="P3" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10">
-        <v>987654321</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="14">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="15">
+        <v>43685.8125</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="15">
+        <v>43683.375694444447</v>
+      </c>
+      <c r="L4" s="14">
+        <v>4</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="14">
+        <v>1</v>
+      </c>
+      <c r="P4" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G5" s="14">
+        <v>3</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="16">
+        <v>41102.770833333336</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="17">
+        <v>43683.381249999999</v>
+      </c>
+      <c r="L5" s="14">
+        <v>2</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="14">
+        <v>1</v>
+      </c>
+      <c r="P5" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="22"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{5E5C7A9E-D140-4941-942C-31870AA8BCC1}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{82DF3B87-7C75-4F3C-86A5-DFF567F61228}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>